--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ottos\Documents\unisinos\arvores\Algoritmos_AVL_GrauB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BE93D-96DB-462A-A2B6-E853BBA8B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E0A065-0D85-4F63-B258-5FC08C537C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5774BE3D-D1E9-467B-A4C9-78BA090B926C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Otto Schmitz</t>
   </si>
@@ -46,13 +46,19 @@
   <si>
     <t>Thomaz</t>
   </si>
+  <si>
+    <t>Valdimir</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000000000"/>
+    <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD37A61-18FF-4E13-8315-6E21C323FD70}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +429,7 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>4328687042</v>
       </c>
@@ -439,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>4328687043</v>
       </c>
@@ -455,6 +462,43 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>4328786044</v>
+      </c>
+      <c r="B3">
+        <v>1233456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37712</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4328687655</v>
+      </c>
+      <c r="B4">
+        <v>1223456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
